--- a/AI Project Work Breakdown Structure (WBS).xlsx
+++ b/AI Project Work Breakdown Structure (WBS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SIC-AI-KSA-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5ED86C-74EA-4F84-8249-0807355648EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507C59E-4B53-4BEB-B1A5-EB21F8688518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -143,10 +143,6 @@
   </si>
   <si>
     <t>W4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capstone Project Work Breakdown Structure (WBS)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -228,6 +224,45 @@
   </si>
   <si>
     <t>Ruba, Sara, Ghassan, Meshal, Martada, Abdullah</t>
+  </si>
+  <si>
+    <t>Martada , Meshal</t>
+  </si>
+  <si>
+    <t>2. Editing</t>
+  </si>
+  <si>
+    <t>2.1.1  Edit action plan file</t>
+  </si>
+  <si>
+    <t>Capstone Project Work Breakdown Structure (WBS)</t>
+  </si>
+  <si>
+    <t>2.1  Edit Work Breakdown Structuren file</t>
+  </si>
+  <si>
+    <t>Ruba</t>
+  </si>
+  <si>
+    <t>3. Data</t>
+  </si>
+  <si>
+    <t>3.1 Data collection</t>
+  </si>
+  <si>
+    <t>3.1.1 Data analysis</t>
+  </si>
+  <si>
+    <t>4.Model</t>
+  </si>
+  <si>
+    <t>4.1  Model design</t>
+  </si>
+  <si>
+    <t>4.1.1 Model implementation</t>
+  </si>
+  <si>
+    <t>4.1.1.1 Model evaluation</t>
   </si>
 </sst>
 </file>
@@ -803,9 +838,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,6 +867,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -862,13 +897,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>293914</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>32657</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>587829</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>141515</xdr:rowOff>
@@ -933,13 +968,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1719942</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>97971</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>163287</xdr:rowOff>
@@ -1384,7 +1419,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1402,7 +1437,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1420,7 +1455,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1454,7 +1489,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1568,7 +1603,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1586,7 +1621,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1604,7 +1639,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1622,7 +1657,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1656,7 +1691,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1714,314 +1749,324 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AD46"/>
+  <dimension ref="B1:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="10" ySplit="13" topLeftCell="K14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="13" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="6.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="57.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="14.33203125" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="27.88671875" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="10" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="30" width="6.88671875" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="57.33203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="27.88671875" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="31" width="6.88671875" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:30" ht="15" thickBot="1"/>
-    <row r="2" spans="2:30" ht="18" thickBot="1">
+    <row r="1" spans="2:31" ht="15" thickBot="1"/>
+    <row r="2" spans="2:31" ht="18" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-    </row>
-    <row r="3" spans="2:30" hidden="1">
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="2:31" hidden="1">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="J3" s="35" t="s">
+      <c r="F3" s="2"/>
+      <c r="K3" s="35" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:30" hidden="1">
+    <row r="4" spans="2:31" hidden="1">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="J4" s="35" t="s">
+      <c r="F4" s="2"/>
+      <c r="K4" s="35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:30" hidden="1">
+    <row r="5" spans="2:31" hidden="1">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="J5" s="35" t="s">
+      <c r="F5" s="2"/>
+      <c r="K5" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="2:30" ht="15" thickBot="1">
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="2:30" ht="15" thickBot="1">
+    <row r="6" spans="2:31" ht="15" thickBot="1">
+      <c r="K6" s="35"/>
+    </row>
+    <row r="7" spans="2:31" ht="15" thickBot="1">
       <c r="B7" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="39">
+        <f ca="1">TODAY()</f>
+        <v>45137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:31" ht="15" thickBot="1">
+      <c r="B8" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="15" thickBot="1">
+      <c r="B9" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="39">
-        <f ca="1">TODAY()</f>
-        <v>45136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:30" ht="15" thickBot="1">
-      <c r="B8" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:30" ht="15" thickBot="1">
-      <c r="B9" s="31" t="s">
-        <v>36</v>
-      </c>
       <c r="C9" s="33"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="40"/>
-    </row>
-    <row r="10" spans="2:30" ht="15" thickBot="1"/>
-    <row r="11" spans="2:30">
-      <c r="B11" s="47" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="40"/>
+    </row>
+    <row r="10" spans="2:31" ht="15" thickBot="1"/>
+    <row r="11" spans="2:31">
+      <c r="B11" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="H11" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J11" s="54" t="s">
+      <c r="I11" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="K11" s="51" t="s">
+      <c r="L11" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="54" t="s">
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="53"/>
-      <c r="U11" s="54" t="s">
+      <c r="R11" s="51"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-      <c r="X11" s="52"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="54" t="s">
+      <c r="W11" s="51"/>
+      <c r="X11" s="51"/>
+      <c r="Y11" s="51"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="52"/>
-      <c r="AC11" s="52"/>
-      <c r="AD11" s="55"/>
-    </row>
-    <row r="12" spans="2:30">
-      <c r="B12" s="49"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="4" t="s">
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="51"/>
+      <c r="AD11" s="51"/>
+      <c r="AE11" s="54"/>
+    </row>
+    <row r="12" spans="2:31">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="X12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="Y12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Z12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AA12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AD12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AE12" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="2:30">
-      <c r="B13" s="49"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="38">
+    <row r="13" spans="2:31">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="38">
         <v>43466</v>
       </c>
-      <c r="L13" s="36">
+      <c r="M13" s="36">
         <v>43467</v>
       </c>
-      <c r="M13" s="36">
+      <c r="N13" s="36">
         <v>43468</v>
       </c>
-      <c r="N13" s="36">
+      <c r="O13" s="36">
         <v>43469</v>
       </c>
-      <c r="O13" s="36">
+      <c r="P13" s="36">
         <v>43470</v>
       </c>
-      <c r="P13" s="36">
+      <c r="Q13" s="36">
         <v>43471</v>
       </c>
-      <c r="Q13" s="36">
+      <c r="R13" s="36">
         <v>43472</v>
       </c>
-      <c r="R13" s="36">
+      <c r="S13" s="36">
         <v>43473</v>
       </c>
-      <c r="S13" s="36">
+      <c r="T13" s="36">
         <v>43474</v>
       </c>
-      <c r="T13" s="36">
+      <c r="U13" s="36">
         <v>43475</v>
       </c>
-      <c r="U13" s="36">
+      <c r="V13" s="36">
         <v>43476</v>
       </c>
-      <c r="V13" s="36">
+      <c r="W13" s="36">
         <v>43477</v>
       </c>
-      <c r="W13" s="36">
+      <c r="X13" s="36">
         <v>43478</v>
       </c>
-      <c r="X13" s="36">
+      <c r="Y13" s="36">
         <v>43479</v>
       </c>
-      <c r="Y13" s="36">
+      <c r="Z13" s="36">
         <v>43480</v>
       </c>
-      <c r="Z13" s="36">
+      <c r="AA13" s="36">
         <v>43481</v>
       </c>
-      <c r="AA13" s="36">
+      <c r="AB13" s="36">
         <v>43482</v>
       </c>
-      <c r="AB13" s="36">
+      <c r="AC13" s="36">
         <v>43483</v>
       </c>
-      <c r="AC13" s="36">
+      <c r="AD13" s="36">
         <v>43484</v>
       </c>
-      <c r="AD13" s="37">
+      <c r="AE13" s="37">
         <v>43485</v>
       </c>
     </row>
-    <row r="14" spans="2:30" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10">
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10">
         <f>DATE(2023,7,20)</f>
         <v>45127</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <f>DATE(2023,7,25)</f>
         <v>45132</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11" t="s">
+      <c r="I14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -2033,36 +2078,39 @@
       <c r="U14" s="13"/>
       <c r="V14" s="13"/>
       <c r="W14" s="13"/>
-      <c r="X14" s="8"/>
+      <c r="X14" s="13"/>
       <c r="Y14" s="8"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
       <c r="AB14" s="8"/>
       <c r="AC14" s="8"/>
-      <c r="AD14" s="14"/>
-    </row>
-    <row r="15" spans="2:30">
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="14"/>
+    </row>
+    <row r="15" spans="2:31">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10">
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10">
         <f>DATE(2023,7,20)</f>
         <v>45127</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <f>DATE(2023,7,29)</f>
         <v>45136</v>
       </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="11" t="s">
+      <c r="I15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="16"/>
+      <c r="L15" s="15"/>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
@@ -2073,41 +2121,47 @@
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16"/>
-      <c r="W15" s="8"/>
+      <c r="W15" s="16"/>
       <c r="X15" s="8"/>
       <c r="Y15" s="8"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
       <c r="AB15" s="8"/>
       <c r="AC15" s="8"/>
-      <c r="AD15" s="14"/>
-    </row>
-    <row r="16" spans="2:30">
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="14"/>
+    </row>
+    <row r="16" spans="2:31">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E16" s="9"/>
-      <c r="F16" s="10">
+      <c r="F16" s="3"/>
+      <c r="G16" s="10">
         <f>DATE(2023,7,29)</f>
         <v>45136</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
+      <c r="H16" s="10">
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17"/>
       <c r="M16" s="18"/>
       <c r="N16" s="18"/>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
-      <c r="S16" s="8"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
@@ -2118,31 +2172,40 @@
       <c r="AA16" s="8"/>
       <c r="AB16" s="8"/>
       <c r="AC16" s="8"/>
-      <c r="AD16" s="14"/>
-    </row>
-    <row r="17" spans="2:30">
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="14"/>
+    </row>
+    <row r="17" spans="2:31">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="18"/>
+      <c r="E17" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10">
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" ref="H17" si="0">DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17"/>
       <c r="M17" s="18"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="8"/>
+      <c r="S17" s="18"/>
       <c r="T17" s="8"/>
       <c r="U17" s="8"/>
       <c r="V17" s="8"/>
@@ -2153,29 +2216,38 @@
       <c r="AA17" s="8"/>
       <c r="AB17" s="8"/>
       <c r="AC17" s="8"/>
-      <c r="AD17" s="14"/>
-    </row>
-    <row r="18" spans="2:30">
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="14"/>
+    </row>
+    <row r="18" spans="2:31">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
-      <c r="E18" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="56" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="10">
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="H18" s="10">
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J18" s="10"/>
+      <c r="K18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="19"/>
       <c r="M18" s="20"/>
       <c r="N18" s="20"/>
       <c r="O18" s="20"/>
       <c r="P18" s="20"/>
-      <c r="Q18" s="8"/>
+      <c r="Q18" s="20"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
@@ -2188,22 +2260,25 @@
       <c r="AA18" s="8"/>
       <c r="AB18" s="8"/>
       <c r="AC18" s="8"/>
-      <c r="AD18" s="14"/>
-    </row>
-    <row r="19" spans="2:30">
-      <c r="B19" s="7"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="14"/>
+    </row>
+    <row r="19" spans="2:31">
+      <c r="B19" s="7" t="s">
+        <v>55</v>
+      </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="8"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="8"/>
       <c r="N19" s="8"/>
       <c r="O19" s="8"/>
@@ -2221,22 +2296,30 @@
       <c r="AA19" s="8"/>
       <c r="AB19" s="8"/>
       <c r="AC19" s="8"/>
-      <c r="AD19" s="14"/>
-    </row>
-    <row r="20" spans="2:30">
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="14"/>
+    </row>
+    <row r="20" spans="2:31">
       <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
+      <c r="C20" s="8" t="s">
+        <v>58</v>
+      </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="11" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10">
+        <f>DATE(2023,7,20)</f>
+        <v>45127</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="7"/>
-      <c r="L20" s="8"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="8"/>
       <c r="N20" s="8"/>
       <c r="O20" s="8"/>
@@ -2254,22 +2337,33 @@
       <c r="AA20" s="8"/>
       <c r="AB20" s="8"/>
       <c r="AC20" s="8"/>
-      <c r="AD20" s="14"/>
-    </row>
-    <row r="21" spans="2:30">
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="14"/>
+    </row>
+    <row r="21" spans="2:31">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10">
+        <f>DATE(2023,7,29)</f>
+        <v>45136</v>
+      </c>
+      <c r="H21" s="10">
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="7"/>
       <c r="M21" s="8"/>
       <c r="N21" s="8"/>
       <c r="O21" s="8"/>
@@ -2287,22 +2381,25 @@
       <c r="AA21" s="8"/>
       <c r="AB21" s="8"/>
       <c r="AC21" s="8"/>
-      <c r="AD21" s="14"/>
-    </row>
-    <row r="22" spans="2:30">
-      <c r="B22" s="7"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="14"/>
+    </row>
+    <row r="22" spans="2:31">
+      <c r="B22" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="11" t="s">
+      <c r="H22" s="10"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
+      <c r="L22" s="7"/>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="O22" s="8"/>
@@ -2320,22 +2417,31 @@
       <c r="AA22" s="8"/>
       <c r="AB22" s="8"/>
       <c r="AC22" s="8"/>
-      <c r="AD22" s="14"/>
-    </row>
-    <row r="23" spans="2:30" ht="17.100000000000001" customHeight="1">
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="14"/>
+    </row>
+    <row r="23" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B23" s="7"/>
-      <c r="C23" s="8"/>
+      <c r="C23" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="11" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10">
+        <f>DATE(2023,8,1)</f>
+        <v>45139</v>
+      </c>
+      <c r="H23" s="10">
+        <f>DATE(2023,8,3)</f>
+        <v>45141</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
+      <c r="L23" s="7"/>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
@@ -2353,22 +2459,31 @@
       <c r="AA23" s="8"/>
       <c r="AB23" s="8"/>
       <c r="AC23" s="8"/>
-      <c r="AD23" s="14"/>
-    </row>
-    <row r="24" spans="2:30">
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="14"/>
+    </row>
+    <row r="24" spans="2:31">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="11" t="s">
+      <c r="D24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10">
+        <f>DATE(2023,8,5)</f>
+        <v>45143</v>
+      </c>
+      <c r="H24" s="10">
+        <f>DATE(2023,8,6)</f>
+        <v>45144</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
+      <c r="L24" s="7"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -2386,22 +2501,25 @@
       <c r="AA24" s="8"/>
       <c r="AB24" s="8"/>
       <c r="AC24" s="8"/>
-      <c r="AD24" s="14"/>
-    </row>
-    <row r="25" spans="2:30">
-      <c r="B25" s="7"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="14"/>
+    </row>
+    <row r="25" spans="2:31">
+      <c r="B25" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="10"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="11" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
+      <c r="L25" s="7"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="O25" s="8"/>
@@ -2419,22 +2537,25 @@
       <c r="AA25" s="8"/>
       <c r="AB25" s="8"/>
       <c r="AC25" s="8"/>
-      <c r="AD25" s="14"/>
-    </row>
-    <row r="26" spans="2:30">
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="14"/>
+    </row>
+    <row r="26" spans="2:31">
       <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="11" t="s">
+      <c r="H26" s="10"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="8"/>
+      <c r="L26" s="7"/>
       <c r="M26" s="8"/>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
@@ -2452,22 +2573,25 @@
       <c r="AA26" s="8"/>
       <c r="AB26" s="8"/>
       <c r="AC26" s="8"/>
-      <c r="AD26" s="14"/>
-    </row>
-    <row r="27" spans="2:30">
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="14"/>
+    </row>
+    <row r="27" spans="2:31">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="10"/>
+      <c r="D27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="11" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="7"/>
-      <c r="L27" s="8"/>
+      <c r="L27" s="7"/>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
@@ -2485,22 +2609,25 @@
       <c r="AA27" s="8"/>
       <c r="AB27" s="8"/>
       <c r="AC27" s="8"/>
-      <c r="AD27" s="14"/>
-    </row>
-    <row r="28" spans="2:30">
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="14"/>
+    </row>
+    <row r="28" spans="2:31">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="10"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="11" t="s">
+      <c r="H28" s="10"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="8"/>
+      <c r="L28" s="7"/>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="O28" s="8"/>
@@ -2518,22 +2645,23 @@
       <c r="AA28" s="8"/>
       <c r="AB28" s="8"/>
       <c r="AC28" s="8"/>
-      <c r="AD28" s="14"/>
-    </row>
-    <row r="29" spans="2:30">
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="14"/>
+    </row>
+    <row r="29" spans="2:31">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="10"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="11" t="s">
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="7"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
@@ -2551,22 +2679,23 @@
       <c r="AA29" s="8"/>
       <c r="AB29" s="8"/>
       <c r="AC29" s="8"/>
-      <c r="AD29" s="14"/>
-    </row>
-    <row r="30" spans="2:30">
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="14"/>
+    </row>
+    <row r="30" spans="2:31">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="10"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="7"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
@@ -2584,20 +2713,21 @@
       <c r="AA30" s="8"/>
       <c r="AB30" s="8"/>
       <c r="AC30" s="8"/>
-      <c r="AD30" s="14"/>
-    </row>
-    <row r="31" spans="2:30" ht="17.100000000000001" customHeight="1">
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="14"/>
+    </row>
+    <row r="31" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="21"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="21"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="7"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
@@ -2615,20 +2745,21 @@
       <c r="AA31" s="8"/>
       <c r="AB31" s="8"/>
       <c r="AC31" s="8"/>
-      <c r="AD31" s="14"/>
-    </row>
-    <row r="32" spans="2:30">
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="14"/>
+    </row>
+    <row r="32" spans="2:31">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="21"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="21"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="7"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -2646,20 +2777,21 @@
       <c r="AA32" s="8"/>
       <c r="AB32" s="8"/>
       <c r="AC32" s="8"/>
-      <c r="AD32" s="14"/>
-    </row>
-    <row r="33" spans="2:30">
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="14"/>
+    </row>
+    <row r="33" spans="2:31">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="21"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="21"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="7"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="O33" s="8"/>
@@ -2677,20 +2809,21 @@
       <c r="AA33" s="8"/>
       <c r="AB33" s="8"/>
       <c r="AC33" s="8"/>
-      <c r="AD33" s="14"/>
-    </row>
-    <row r="34" spans="2:30">
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="14"/>
+    </row>
+    <row r="34" spans="2:31">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="21"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="21"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="8"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="7"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -2708,20 +2841,21 @@
       <c r="AA34" s="8"/>
       <c r="AB34" s="8"/>
       <c r="AC34" s="8"/>
-      <c r="AD34" s="14"/>
-    </row>
-    <row r="35" spans="2:30">
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="14"/>
+    </row>
+    <row r="35" spans="2:31">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="21"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="21"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="8"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="7"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -2739,20 +2873,21 @@
       <c r="AA35" s="8"/>
       <c r="AB35" s="8"/>
       <c r="AC35" s="8"/>
-      <c r="AD35" s="14"/>
-    </row>
-    <row r="36" spans="2:30">
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="14"/>
+    </row>
+    <row r="36" spans="2:31">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="21"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="21"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="21"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="8"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="21"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="7"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
@@ -2770,20 +2905,21 @@
       <c r="AA36" s="8"/>
       <c r="AB36" s="8"/>
       <c r="AC36" s="8"/>
-      <c r="AD36" s="14"/>
-    </row>
-    <row r="37" spans="2:30">
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="14"/>
+    </row>
+    <row r="37" spans="2:31">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="21"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
       <c r="G37" s="21"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="8"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="7"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
@@ -2801,20 +2937,21 @@
       <c r="AA37" s="8"/>
       <c r="AB37" s="8"/>
       <c r="AC37" s="8"/>
-      <c r="AD37" s="14"/>
-    </row>
-    <row r="38" spans="2:30">
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="14"/>
+    </row>
+    <row r="38" spans="2:31">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="21"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="21"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="8"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="21"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="7"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="O38" s="8"/>
@@ -2832,20 +2969,21 @@
       <c r="AA38" s="8"/>
       <c r="AB38" s="8"/>
       <c r="AC38" s="8"/>
-      <c r="AD38" s="14"/>
-    </row>
-    <row r="39" spans="2:30" ht="17.100000000000001" customHeight="1">
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="14"/>
+    </row>
+    <row r="39" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="21"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="7"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
       <c r="O39" s="8"/>
@@ -2863,20 +3001,21 @@
       <c r="AA39" s="8"/>
       <c r="AB39" s="8"/>
       <c r="AC39" s="8"/>
-      <c r="AD39" s="14"/>
-    </row>
-    <row r="40" spans="2:30">
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="14"/>
+    </row>
+    <row r="40" spans="2:31">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="21"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="8"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="7"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="8"/>
@@ -2894,20 +3033,21 @@
       <c r="AA40" s="8"/>
       <c r="AB40" s="8"/>
       <c r="AC40" s="8"/>
-      <c r="AD40" s="14"/>
-    </row>
-    <row r="41" spans="2:30">
+      <c r="AD40" s="8"/>
+      <c r="AE40" s="14"/>
+    </row>
+    <row r="41" spans="2:31">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="21"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="21"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="7"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="8"/>
@@ -2925,20 +3065,21 @@
       <c r="AA41" s="8"/>
       <c r="AB41" s="8"/>
       <c r="AC41" s="8"/>
-      <c r="AD41" s="14"/>
-    </row>
-    <row r="42" spans="2:30">
+      <c r="AD41" s="8"/>
+      <c r="AE41" s="14"/>
+    </row>
+    <row r="42" spans="2:31">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="21"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="21"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="7"/>
       <c r="M42" s="8"/>
       <c r="N42" s="8"/>
       <c r="O42" s="8"/>
@@ -2956,20 +3097,21 @@
       <c r="AA42" s="8"/>
       <c r="AB42" s="8"/>
       <c r="AC42" s="8"/>
-      <c r="AD42" s="14"/>
-    </row>
-    <row r="43" spans="2:30">
+      <c r="AD42" s="8"/>
+      <c r="AE42" s="14"/>
+    </row>
+    <row r="43" spans="2:31">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="21"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="21"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="8"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="7"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
       <c r="O43" s="8"/>
@@ -2987,20 +3129,21 @@
       <c r="AA43" s="8"/>
       <c r="AB43" s="8"/>
       <c r="AC43" s="8"/>
-      <c r="AD43" s="14"/>
-    </row>
-    <row r="44" spans="2:30">
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="14"/>
+    </row>
+    <row r="44" spans="2:31">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="21"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="8"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="7"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
       <c r="O44" s="8"/>
@@ -3018,20 +3161,21 @@
       <c r="AA44" s="8"/>
       <c r="AB44" s="8"/>
       <c r="AC44" s="8"/>
-      <c r="AD44" s="14"/>
-    </row>
-    <row r="45" spans="2:30">
+      <c r="AD44" s="8"/>
+      <c r="AE44" s="14"/>
+    </row>
+    <row r="45" spans="2:31">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="21"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
       <c r="G45" s="21"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="8"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="7"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
       <c r="O45" s="8"/>
@@ -3049,20 +3193,21 @@
       <c r="AA45" s="8"/>
       <c r="AB45" s="8"/>
       <c r="AC45" s="8"/>
-      <c r="AD45" s="14"/>
-    </row>
-    <row r="46" spans="2:30" ht="15" thickBot="1">
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="14"/>
+    </row>
+    <row r="46" spans="2:31" ht="15" thickBot="1">
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
       <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="25"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
       <c r="G46" s="25"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="23"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="22"/>
       <c r="M46" s="23"/>
       <c r="N46" s="23"/>
       <c r="O46" s="23"/>
@@ -3080,25 +3225,26 @@
       <c r="AA46" s="23"/>
       <c r="AB46" s="23"/>
       <c r="AC46" s="23"/>
-      <c r="AD46" s="27"/>
+      <c r="AD46" s="23"/>
+      <c r="AE46" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="B11:E13"/>
-    <mergeCell ref="K11:O11"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="U11:Y11"/>
-    <mergeCell ref="Z11:AD11"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="B11:F13"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="Q11:U11"/>
+    <mergeCell ref="V11:Z11"/>
+    <mergeCell ref="AA11:AE11"/>
     <mergeCell ref="G11:G13"/>
+    <mergeCell ref="K11:K13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="I11:I13"/>
+    <mergeCell ref="J11:J13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J14:J46" xr:uid="{00000000-0002-0000-0100-000000000000}">
-      <formula1>$J$3:$J$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K46" xr:uid="{00000000-0002-0000-0100-000000000000}">
+      <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AI Project Work Breakdown Structure (WBS).xlsx
+++ b/AI Project Work Breakdown Structure (WBS).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SIC-AI-KSA-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5507C59E-4B53-4BEB-B1A5-EB21F8688518}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF59E52-8B9D-4BAA-AE71-C557ED315D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>4.1.1.1 Model evaluation</t>
+  </si>
+  <si>
+    <t>1.2 github processing</t>
   </si>
 </sst>
 </file>
@@ -838,6 +841,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -867,9 +873,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1749,13 +1752,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE46"/>
+  <dimension ref="B1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="13" topLeftCell="L17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="13" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1848,68 +1851,68 @@
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1"/>
     <row r="11" spans="2:31">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="47" t="s">
+      <c r="H11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="J11" s="47" t="s">
+      <c r="J11" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="K11" s="53" t="s">
+      <c r="K11" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="50" t="s">
+      <c r="L11" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53" t="s">
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="R11" s="51"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="53" t="s">
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-      <c r="Z11" s="52"/>
-      <c r="AA11" s="53" t="s">
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="AB11" s="51"/>
-      <c r="AC11" s="51"/>
-      <c r="AD11" s="51"/>
-      <c r="AE11" s="54"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="55"/>
     </row>
     <row r="12" spans="2:31">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="55"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="4" t="s">
         <v>9</v>
       </c>
@@ -1972,16 +1975,16 @@
       </c>
     </row>
     <row r="13" spans="2:31">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="55"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="56"/>
       <c r="L13" s="38">
         <v>43466</v>
       </c>
@@ -2224,7 +2227,7 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="56" t="s">
+      <c r="F18" s="46" t="s">
         <v>49</v>
       </c>
       <c r="G18" s="10">
@@ -2264,26 +2267,22 @@
       <c r="AE18" s="14"/>
     </row>
     <row r="19" spans="2:31">
-      <c r="B19" s="7" t="s">
-        <v>55</v>
-      </c>
+      <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="9"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
       <c r="J19" s="10"/>
-      <c r="K19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="20"/>
       <c r="R19" s="8"/>
       <c r="S19" s="8"/>
       <c r="T19" s="8"/>
@@ -2300,31 +2299,32 @@
       <c r="AE19" s="14"/>
     </row>
     <row r="20" spans="2:31">
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
-        <v>58</v>
-      </c>
+      <c r="B20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="10">
-        <f>DATE(2023,7,20)</f>
-        <v>45127</v>
-      </c>
-      <c r="H20" s="10"/>
+        <f>DATE(2023,7,29)</f>
+        <v>45136</v>
+      </c>
+      <c r="H20" s="10">
+        <f>DATE(2023,7,29)</f>
+        <v>45136</v>
+      </c>
       <c r="I20" s="9" t="s">
         <v>59</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="8"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
       <c r="T20" s="8"/>
@@ -2343,32 +2343,20 @@
     <row r="21" spans="2:31">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
+      <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10">
-        <f>DATE(2023,7,29)</f>
-        <v>45136</v>
-      </c>
-      <c r="H21" s="10">
-        <f>DATE(2023,7,30)</f>
-        <v>45137</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>54</v>
-      </c>
+      <c r="F21" s="46"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="9"/>
       <c r="J21" s="10"/>
-      <c r="K21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="8"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
       <c r="R21" s="8"/>
       <c r="S21" s="8"/>
       <c r="T21" s="8"/>
@@ -2386,7 +2374,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2397,7 +2385,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="10"/>
       <c r="K22" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="8"/>
@@ -2420,23 +2408,22 @@
       <c r="AD22" s="8"/>
       <c r="AE22" s="14"/>
     </row>
-    <row r="23" spans="2:31" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="2:31">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="9"/>
       <c r="G23" s="10">
-        <f>DATE(2023,8,1)</f>
-        <v>45139</v>
-      </c>
-      <c r="H23" s="10">
-        <f>DATE(2023,8,3)</f>
-        <v>45141</v>
-      </c>
-      <c r="I23" s="9"/>
+        <f>DATE(2023,7,20)</f>
+        <v>45127</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
         <v>3</v>
@@ -2466,22 +2453,24 @@
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10">
-        <f>DATE(2023,8,5)</f>
-        <v>45143</v>
+        <f>DATE(2023,7,29)</f>
+        <v>45136</v>
       </c>
       <c r="H24" s="10">
-        <f>DATE(2023,8,6)</f>
-        <v>45144</v>
-      </c>
-      <c r="I24" s="9"/>
+        <f>DATE(2023,7,30)</f>
+        <v>45137</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="J24" s="10"/>
       <c r="K24" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="8"/>
@@ -2505,9 +2494,7 @@
       <c r="AE24" s="14"/>
     </row>
     <row r="25" spans="2:31">
-      <c r="B25" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2516,9 +2503,7 @@
       <c r="H25" s="10"/>
       <c r="I25" s="9"/>
       <c r="J25" s="10"/>
-      <c r="K25" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="K25" s="11"/>
       <c r="L25" s="7"/>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
@@ -2541,10 +2526,10 @@
       <c r="AE25" s="14"/>
     </row>
     <row r="26" spans="2:31">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8" t="s">
-        <v>64</v>
-      </c>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="9"/>
@@ -2576,16 +2561,22 @@
       <c r="AD26" s="8"/>
       <c r="AE26" s="14"/>
     </row>
-    <row r="27" spans="2:31">
+    <row r="27" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8" t="s">
-        <v>65</v>
-      </c>
+      <c r="C27" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="G27" s="10">
+        <f>DATE(2023,8,1)</f>
+        <v>45139</v>
+      </c>
+      <c r="H27" s="10">
+        <f>DATE(2023,8,3)</f>
+        <v>45141</v>
+      </c>
       <c r="I27" s="9"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
@@ -2615,13 +2606,19 @@
     <row r="28" spans="2:31">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="D28" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="8"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="10">
+        <f>DATE(2023,8,5)</f>
+        <v>45143</v>
+      </c>
+      <c r="H28" s="10">
+        <f>DATE(2023,8,6)</f>
+        <v>45144</v>
+      </c>
       <c r="I28" s="9"/>
       <c r="J28" s="10"/>
       <c r="K28" s="11" t="s">
@@ -2658,9 +2655,7 @@
       <c r="H29" s="10"/>
       <c r="I29" s="9"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="11" t="s">
-        <v>3</v>
-      </c>
+      <c r="K29" s="11"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -2683,7 +2678,9 @@
       <c r="AE29" s="14"/>
     </row>
     <row r="30" spans="2:31">
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>63</v>
+      </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2716,17 +2713,21 @@
       <c r="AD30" s="8"/>
       <c r="AE30" s="14"/>
     </row>
-    <row r="31" spans="2:31" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="2:31">
       <c r="B31" s="7"/>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="9"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="11"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="L31" s="7"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
@@ -2751,14 +2752,18 @@
     <row r="32" spans="2:31">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>65</v>
+      </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="9"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="11"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="L32" s="7"/>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
@@ -2784,13 +2789,17 @@
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="11"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="L33" s="7"/>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
@@ -2818,11 +2827,13 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="9"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="11"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="L34" s="7"/>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
@@ -2850,11 +2861,13 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="9"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="11"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2876,7 +2889,7 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="14"/>
     </row>
-    <row r="36" spans="2:31">
+    <row r="36" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -2972,7 +2985,7 @@
       <c r="AD38" s="8"/>
       <c r="AE38" s="14"/>
     </row>
-    <row r="39" spans="2:31" ht="17.100000000000001" customHeight="1">
+    <row r="39" spans="2:31">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -3132,7 +3145,7 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="14"/>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
@@ -3196,37 +3209,197 @@
       <c r="AD45" s="8"/>
       <c r="AE45" s="14"/>
     </row>
-    <row r="46" spans="2:31" ht="15" thickBot="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="27"/>
+    <row r="46" spans="2:31">
+      <c r="B46" s="7"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="14"/>
+    </row>
+    <row r="47" spans="2:31">
+      <c r="B47" s="7"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="14"/>
+    </row>
+    <row r="48" spans="2:31">
+      <c r="B48" s="7"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="14"/>
+    </row>
+    <row r="49" spans="2:31">
+      <c r="B49" s="7"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="14"/>
+    </row>
+    <row r="50" spans="2:31">
+      <c r="B50" s="7"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="14"/>
+    </row>
+    <row r="51" spans="2:31" ht="15" thickBot="1">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3243,7 +3416,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K46" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K51" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/AI Project Work Breakdown Structure (WBS).xlsx
+++ b/AI Project Work Breakdown Structure (WBS).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\SIC-AI-KSA-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almuhyaru\Desktop\SIC-AI-KSA-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF59E52-8B9D-4BAA-AE71-C557ED315D3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="6" r:id="rId1"/>
     <sheet name="WBS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,9 +41,6 @@
   <si>
     <t>Done</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>In-progress</t>
   </si>
   <si>
     <t>In-progress</t>
@@ -267,11 +263,32 @@
   <si>
     <t>1.2 github processing</t>
   </si>
+  <si>
+    <t xml:space="preserve">5. Deploy </t>
+  </si>
+  <si>
+    <t>Martada</t>
+  </si>
+  <si>
+    <t>Ruba, Martada, Meshal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.speaker </t>
+  </si>
+  <si>
+    <t>6.  action plan</t>
+  </si>
+  <si>
+    <t>7.powerpoint presentation</t>
+  </si>
+  <si>
+    <t>Meshal, Martada</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -876,7 +893,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1339,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1422,7 +1439,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="41"/>
       <c r="D9" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1440,7 +1457,7 @@
       <c r="B10" s="3"/>
       <c r="C10" s="42"/>
       <c r="D10" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1458,7 +1475,7 @@
       <c r="B11" s="3"/>
       <c r="C11" s="42"/>
       <c r="D11" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1492,7 +1509,7 @@
       <c r="B13" s="3"/>
       <c r="C13" s="41"/>
       <c r="D13" s="41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1606,7 +1623,7 @@
       <c r="B20" s="3"/>
       <c r="C20" s="43"/>
       <c r="D20" s="43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1624,7 +1641,7 @@
       <c r="B21" s="3"/>
       <c r="C21" s="44"/>
       <c r="D21" s="44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1642,7 +1659,7 @@
       <c r="B22" s="3"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1660,7 +1677,7 @@
       <c r="B23" s="3"/>
       <c r="C23" s="44"/>
       <c r="D23" s="44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1694,7 +1711,7 @@
       <c r="B25" s="3"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1748,17 +1765,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="13" topLeftCell="L23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="13" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD29"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1767,7 +1784,7 @@
     <col min="2" max="5" width="6.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="14.33203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="26.109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="27.88671875" style="34" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
     <col min="12" max="31" width="6.88671875" style="1" customWidth="1"/>
@@ -1777,7 +1794,7 @@
     <row r="1" spans="2:31" ht="15" thickBot="1"/>
     <row r="2" spans="2:31" ht="18" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1801,7 +1818,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="K4" s="35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:31" hidden="1">
@@ -1811,7 +1828,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="K5" s="35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:31" ht="15" thickBot="1">
@@ -1819,30 +1836,30 @@
     </row>
     <row r="7" spans="2:31" ht="15" thickBot="1">
       <c r="B7" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
       <c r="F7" s="39">
         <f ca="1">TODAY()</f>
-        <v>45137</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1">
       <c r="B8" s="31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
       <c r="F8" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="15" thickBot="1">
       <c r="B9" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
@@ -1859,43 +1876,43 @@
       <c r="E11" s="48"/>
       <c r="F11" s="48"/>
       <c r="G11" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="48" t="s">
-        <v>8</v>
-      </c>
       <c r="I11" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L11" s="51" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
       <c r="P11" s="53"/>
       <c r="Q11" s="54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R11" s="52"/>
       <c r="S11" s="52"/>
       <c r="T11" s="52"/>
       <c r="U11" s="53"/>
       <c r="V11" s="54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="W11" s="52"/>
       <c r="X11" s="52"/>
       <c r="Y11" s="52"/>
       <c r="Z11" s="53"/>
       <c r="AA11" s="54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB11" s="52"/>
       <c r="AC11" s="52"/>
@@ -1914,64 +1931,64 @@
       <c r="J12" s="50"/>
       <c r="K12" s="56"/>
       <c r="L12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="N12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="O12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="P12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="Q12" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="S12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="T12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="U12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="U12" s="5" t="s">
+      <c r="V12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="V12" s="5" t="s">
+      <c r="W12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="W12" s="5" t="s">
+      <c r="X12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="X12" s="5" t="s">
+      <c r="Y12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Z12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="AA12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="AA12" s="5" t="s">
+      <c r="AB12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AB12" s="5" t="s">
+      <c r="AC12" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="AC12" s="5" t="s">
+      <c r="AD12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AD12" s="5" t="s">
+      <c r="AE12" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="AE12" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:31">
@@ -2048,7 +2065,7 @@
     </row>
     <row r="14" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B14" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -2063,7 +2080,7 @@
         <v>45132</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -2093,7 +2110,7 @@
     <row r="15" spans="2:31">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2107,7 +2124,7 @@
         <v>45136</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
@@ -2138,7 +2155,7 @@
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="3"/>
@@ -2151,7 +2168,7 @@
         <v>45137</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
@@ -2183,7 +2200,7 @@
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10">
@@ -2195,7 +2212,7 @@
         <v>45137</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -2228,7 +2245,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="10">
         <f>DATE(2023,7,30)</f>
@@ -2239,7 +2256,7 @@
         <v>45137</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
@@ -2300,7 +2317,7 @@
     </row>
     <row r="20" spans="2:31">
       <c r="B20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -2315,10 +2332,12 @@
         <v>45136</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J20" s="10"/>
-      <c r="K20" s="11"/>
+      <c r="K20" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L20" s="19"/>
       <c r="M20" s="20"/>
       <c r="N20" s="20"/>
@@ -2374,7 +2393,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2411,7 +2430,7 @@
     <row r="23" spans="2:31">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2422,11 +2441,11 @@
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L23" s="7"/>
       <c r="M23" s="8"/>
@@ -2453,7 +2472,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
@@ -2466,7 +2485,7 @@
         <v>45137</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="11" t="s">
@@ -2527,7 +2546,7 @@
     </row>
     <row r="26" spans="2:31">
       <c r="B26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2538,7 +2557,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="10"/>
       <c r="K26" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="8"/>
@@ -2564,7 +2583,7 @@
     <row r="27" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2577,10 +2596,12 @@
         <f>DATE(2023,8,3)</f>
         <v>45141</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I27" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" s="7"/>
       <c r="M27" s="8"/>
@@ -2607,7 +2628,7 @@
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
@@ -2619,10 +2640,12 @@
         <f>DATE(2023,8,6)</f>
         <v>45144</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="I28" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J28" s="10"/>
       <c r="K28" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="8"/>
@@ -2651,11 +2674,21 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
+      <c r="G29" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="H29" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -2679,18 +2712,26 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="H30" s="10">
+        <f>DATE(2023,8,9)</f>
+        <v>45147</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="8"/>
@@ -2716,17 +2757,25 @@
     <row r="31" spans="2:31">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="9"/>
+      <c r="G31" s="10">
+        <f>DATE(2023,8,10)</f>
+        <v>45148</v>
+      </c>
+      <c r="H31" s="10">
+        <f>DATE(2023,8,13)</f>
+        <v>45151</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31" s="7"/>
       <c r="M31" s="8"/>
@@ -2753,16 +2802,24 @@
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="9"/>
+      <c r="G32" s="10">
+        <f>DATE(2023,8,12)</f>
+        <v>45150</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" ref="H32:H34" si="1">DATE(2023,8,13)</f>
+        <v>45151</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J32" s="10"/>
       <c r="K32" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="8"/>
@@ -2790,15 +2847,23 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="9"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="9"/>
+      <c r="G33" s="10">
+        <f>DATE(2023,8,12)</f>
+        <v>45150</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
+        <v>45151</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J33" s="10"/>
       <c r="K33" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33" s="7"/>
       <c r="M33" s="8"/>
@@ -2827,12 +2892,18 @@
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="9"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
+      <c r="G34" s="10">
+        <f>DATE(2023,8,12)</f>
+        <v>45150</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="1"/>
+        <v>45151</v>
+      </c>
       <c r="I34" s="9"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="8"/>
@@ -2856,17 +2927,27 @@
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="2:31">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="10">
+        <f>DATE(2023,8,9)</f>
+        <v>45147</v>
+      </c>
+      <c r="H35" s="10">
+        <f>DATE(2023,8,14)</f>
+        <v>45152</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="J35" s="10"/>
       <c r="K35" s="11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
@@ -2895,11 +2976,19 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
+      <c r="G36" s="10">
+        <f t="shared" ref="G29:G39" si="2">DATE(2023,8,5)</f>
+        <v>45143</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" ref="H36:H39" si="3">DATE(2023,8,14)</f>
+        <v>45152</v>
+      </c>
       <c r="I36" s="9"/>
       <c r="J36" s="21"/>
-      <c r="K36" s="11"/>
+      <c r="K36" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L36" s="7"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
@@ -2922,16 +3011,28 @@
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="2:31">
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="9"/>
+      <c r="G37" s="10">
+        <f t="shared" si="2"/>
+        <v>45143</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="J37" s="21"/>
-      <c r="K37" s="11"/>
+      <c r="K37" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -2954,14 +3055,24 @@
       <c r="AE37" s="14"/>
     </row>
     <row r="38" spans="2:31">
-      <c r="B38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="9"/>
+      <c r="G38" s="10">
+        <f>DATE(2023,8,13)</f>
+        <v>45151</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="J38" s="21"/>
       <c r="K38" s="11"/>
       <c r="L38" s="7"/>
@@ -2986,13 +3097,21 @@
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="2:31">
-      <c r="B39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="10">
+        <f>DATE(2023,8,14)</f>
+        <v>45152</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
       <c r="I39" s="9"/>
       <c r="J39" s="21"/>
       <c r="K39" s="11"/>
@@ -3416,7 +3535,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K51">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/AI Project Work Breakdown Structure (WBS).xlsx
+++ b/AI Project Work Breakdown Structure (WBS).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almuhyaru\Desktop\SIC-AI-KSA-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesha\سطح المكتب\SIC AI\SIC-AI-KSA-2023-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83202FED-ACA3-4DB7-9E9E-509E9003D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="6" r:id="rId1"/>
     <sheet name="WBS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,18 +205,6 @@
     <t>1. Brainstorming ideas</t>
   </si>
   <si>
-    <t>1.1. Research</t>
-  </si>
-  <si>
-    <t>1.1.1. Evaluation</t>
-  </si>
-  <si>
-    <t>1.1.1.1. Planing</t>
-  </si>
-  <si>
-    <t>1.1.1.1.1. Final decision</t>
-  </si>
-  <si>
     <t>Responsibility</t>
   </si>
   <si>
@@ -219,18 +214,12 @@
     <t>Deliverable</t>
   </si>
   <si>
-    <t>Ruba, Sara, Ghassan, Meshal, Martada, Abdullah</t>
-  </si>
-  <si>
     <t>Martada , Meshal</t>
   </si>
   <si>
     <t>2. Editing</t>
   </si>
   <si>
-    <t>2.1.1  Edit action plan file</t>
-  </si>
-  <si>
     <t>Capstone Project Work Breakdown Structure (WBS)</t>
   </si>
   <si>
@@ -246,24 +235,12 @@
     <t>3.1 Data collection</t>
   </si>
   <si>
-    <t>3.1.1 Data analysis</t>
-  </si>
-  <si>
     <t>4.Model</t>
   </si>
   <si>
     <t>4.1  Model design</t>
   </si>
   <si>
-    <t>4.1.1 Model implementation</t>
-  </si>
-  <si>
-    <t>4.1.1.1 Model evaluation</t>
-  </si>
-  <si>
-    <t>1.2 github processing</t>
-  </si>
-  <si>
     <t xml:space="preserve">5. Deploy </t>
   </si>
   <si>
@@ -273,22 +250,82 @@
     <t>Ruba, Martada, Meshal</t>
   </si>
   <si>
-    <t xml:space="preserve">8.speaker </t>
-  </si>
-  <si>
-    <t>6.  action plan</t>
-  </si>
-  <si>
-    <t>7.powerpoint presentation</t>
-  </si>
-  <si>
     <t>Meshal, Martada</t>
+  </si>
+  <si>
+    <t>Distracted Driver Detection</t>
+  </si>
+  <si>
+    <t>InnovateX</t>
+  </si>
+  <si>
+    <t>1.2 Github Processing</t>
+  </si>
+  <si>
+    <t>6. Capstone Project Files</t>
+  </si>
+  <si>
+    <t>7. Project Delivery</t>
+  </si>
+  <si>
+    <t>7.1 Final Action Plan</t>
+  </si>
+  <si>
+    <t>7.2 Final Report</t>
+  </si>
+  <si>
+    <t>7.3 Final Presentation</t>
+  </si>
+  <si>
+    <t>7.4 Final Code File</t>
+  </si>
+  <si>
+    <t>6.1 Action Plan</t>
+  </si>
+  <si>
+    <t>6.2 WBS</t>
+  </si>
+  <si>
+    <t>6.3 Presentation</t>
+  </si>
+  <si>
+    <t>Meshal</t>
+  </si>
+  <si>
+    <t>3.2 Data analysis</t>
+  </si>
+  <si>
+    <t>2.2  Edit action plan file</t>
+  </si>
+  <si>
+    <t>Ruba, Meshal</t>
+  </si>
+  <si>
+    <t>4.2 Model implementation</t>
+  </si>
+  <si>
+    <t>4.2.1 Model Training</t>
+  </si>
+  <si>
+    <t>4.2.2 Model Testing</t>
+  </si>
+  <si>
+    <t>1.1. Planning</t>
+  </si>
+  <si>
+    <t>1.2 Research</t>
+  </si>
+  <si>
+    <t>1.3 Evaluation</t>
+  </si>
+  <si>
+    <t>1.4 Final Decision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -741,19 +778,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -762,7 +799,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -783,25 +820,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -828,19 +865,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -858,7 +892,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1356,7 +1393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1437,8 +1474,8 @@
     </row>
     <row r="9" spans="2:15" ht="15">
       <c r="B9" s="3"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41" t="s">
+      <c r="C9" s="40"/>
+      <c r="D9" s="40" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="3"/>
@@ -1455,8 +1492,8 @@
     </row>
     <row r="10" spans="2:15" ht="44.4">
       <c r="B10" s="3"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
@@ -1473,8 +1510,8 @@
     </row>
     <row r="11" spans="2:15" ht="44.4">
       <c r="B11" s="3"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3"/>
@@ -1507,8 +1544,8 @@
     </row>
     <row r="13" spans="2:15" ht="15">
       <c r="B13" s="3"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="40"/>
+      <c r="D13" s="40" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3"/>
@@ -1621,8 +1658,8 @@
     </row>
     <row r="20" spans="2:15" ht="9.9" customHeight="1">
       <c r="B20" s="3"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43" t="s">
+      <c r="C20" s="42"/>
+      <c r="D20" s="42" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3"/>
@@ -1639,8 +1676,8 @@
     </row>
     <row r="21" spans="2:15" ht="9.9" customHeight="1">
       <c r="B21" s="3"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44" t="s">
+      <c r="C21" s="43"/>
+      <c r="D21" s="43" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="3"/>
@@ -1657,8 +1694,8 @@
     </row>
     <row r="22" spans="2:15" ht="9.9" customHeight="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44" t="s">
+      <c r="C22" s="43"/>
+      <c r="D22" s="43" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="3"/>
@@ -1675,8 +1712,8 @@
     </row>
     <row r="23" spans="2:15" ht="9.9" customHeight="1">
       <c r="B23" s="3"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44" t="s">
+      <c r="C23" s="43"/>
+      <c r="D23" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="3"/>
@@ -1709,8 +1746,8 @@
     </row>
     <row r="25" spans="2:15" ht="15">
       <c r="B25" s="3"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="3"/>
@@ -1728,7 +1765,7 @@
     <row r="26" spans="2:15" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="45"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1765,23 +1802,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE51"/>
+  <dimension ref="B1:AE58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="13" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="13" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="26.109375" style="1" customWidth="1" outlineLevel="1"/>
@@ -1794,7 +1834,7 @@
     <row r="1" spans="2:31" ht="15" thickBot="1"/>
     <row r="2" spans="2:31" ht="18" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1841,9 +1881,9 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="39">
+      <c r="F7" s="46">
         <f ca="1">TODAY()</f>
-        <v>45153</v>
+        <v>45154</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1">
@@ -1853,8 +1893,8 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="40" t="s">
-        <v>52</v>
+      <c r="F8" s="39" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="15" thickBot="1">
@@ -1864,7 +1904,9 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="40"/>
+      <c r="F9" s="39" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1"/>
     <row r="11" spans="2:31">
@@ -1882,10 +1924,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K11" s="54" t="s">
         <v>5</v>
@@ -2080,7 +2122,7 @@
         <v>45132</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -2110,7 +2152,7 @@
     <row r="15" spans="2:31">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2124,7 +2166,7 @@
         <v>45136</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
@@ -2153,10 +2195,10 @@
     </row>
     <row r="16" spans="2:31">
       <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="C16" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="8"/>
       <c r="E16" s="9"/>
       <c r="F16" s="3"/>
       <c r="G16" s="10">
@@ -2168,7 +2210,7 @@
         <v>45137</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
@@ -2197,11 +2239,11 @@
     </row>
     <row r="17" spans="2:31">
       <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
+      <c r="C17" s="8" t="s">
+        <v>82</v>
+      </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="9"/>
       <c r="G17" s="10">
         <f>DATE(2023,7,30)</f>
@@ -2212,7 +2254,7 @@
         <v>45137</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -2241,12 +2283,12 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="46" t="s">
-        <v>48</v>
-      </c>
+      <c r="C18" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="10">
         <f>DATE(2023,7,30)</f>
         <v>45137</v>
@@ -2256,7 +2298,7 @@
         <v>45137</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
@@ -2288,7 +2330,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
@@ -2317,12 +2359,12 @@
     </row>
     <row r="20" spans="2:31">
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="10">
         <f>DATE(2023,7,29)</f>
         <v>45136</v>
@@ -2332,7 +2374,7 @@
         <v>45136</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="11" t="s">
@@ -2364,7 +2406,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="46"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="9"/>
@@ -2393,7 +2435,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2430,7 +2472,7 @@
     <row r="23" spans="2:31">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2439,9 +2481,11 @@
         <f>DATE(2023,7,20)</f>
         <v>45127</v>
       </c>
-      <c r="H23" s="10"/>
+      <c r="H23" s="10">
+        <v>45154</v>
+      </c>
       <c r="I23" s="9" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
@@ -2470,10 +2514,10 @@
     </row>
     <row r="24" spans="2:31">
       <c r="B24" s="7"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8" t="s">
-        <v>55</v>
-      </c>
+      <c r="C24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3"/>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10">
@@ -2485,7 +2529,7 @@
         <v>45137</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="11" t="s">
@@ -2546,7 +2590,7 @@
     </row>
     <row r="26" spans="2:31">
       <c r="B26" s="7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2583,7 +2627,7 @@
     <row r="27" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2597,7 +2641,7 @@
         <v>45141</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
@@ -2626,10 +2670,10 @@
     </row>
     <row r="28" spans="2:31">
       <c r="B28" s="7"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="C28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10">
@@ -2641,7 +2685,7 @@
         <v>45144</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="11" t="s">
@@ -2674,21 +2718,11 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10">
-        <f>DATE(2023,8,8)</f>
-        <v>45146</v>
-      </c>
-      <c r="H29" s="10">
-        <f>DATE(2023,8,8)</f>
-        <v>45146</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>69</v>
-      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="9"/>
       <c r="J29" s="10"/>
-      <c r="K29" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K29" s="11"/>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -2712,23 +2746,15 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10">
-        <f>DATE(2023,8,8)</f>
-        <v>45146</v>
-      </c>
-      <c r="H30" s="10">
-        <f>DATE(2023,8,9)</f>
-        <v>45147</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="9"/>
       <c r="J30" s="10"/>
       <c r="K30" s="11" t="s">
         <v>1</v>
@@ -2757,7 +2783,7 @@
     <row r="31" spans="2:31">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2771,7 +2797,7 @@
         <v>45151</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11" t="s">
@@ -2802,7 +2828,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
@@ -2811,11 +2837,11 @@
         <v>45150</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" ref="H32:H34" si="1">DATE(2023,8,13)</f>
+        <f t="shared" ref="H32:H33" si="1">DATE(2023,8,13)</f>
         <v>45151</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="11" t="s">
@@ -2847,7 +2873,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10">
@@ -2859,7 +2885,7 @@
         <v>45151</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="11" t="s">
@@ -2890,17 +2916,19 @@
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>79</v>
+      </c>
       <c r="F34" s="9"/>
       <c r="G34" s="10">
-        <f>DATE(2023,8,12)</f>
-        <v>45150</v>
+        <v>45151</v>
       </c>
       <c r="H34" s="10">
-        <f t="shared" si="1"/>
-        <v>45151</v>
-      </c>
-      <c r="I34" s="9"/>
+        <v>45152</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="J34" s="10"/>
       <c r="K34" s="11" t="s">
         <v>1</v>
@@ -2927,28 +2955,16 @@
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="2:31">
-      <c r="B35" s="7" t="s">
-        <v>67</v>
-      </c>
+      <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10">
-        <f>DATE(2023,8,9)</f>
-        <v>45147</v>
-      </c>
-      <c r="H35" s="10">
-        <f>DATE(2023,8,14)</f>
-        <v>45152</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>68</v>
-      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="9"/>
       <c r="J35" s="10"/>
-      <c r="K35" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K35" s="11"/>
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2970,22 +2986,24 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="14"/>
     </row>
-    <row r="36" spans="2:31" ht="17.100000000000001" customHeight="1">
-      <c r="B36" s="7"/>
+    <row r="36" spans="2:31">
+      <c r="B36" s="7" t="s">
+        <v>57</v>
+      </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10">
-        <f t="shared" ref="G29:G39" si="2">DATE(2023,8,5)</f>
-        <v>45143</v>
+        <v>45153</v>
       </c>
       <c r="H36" s="10">
-        <f t="shared" ref="H36:H39" si="3">DATE(2023,8,14)</f>
-        <v>45152</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="21"/>
+        <v>45154</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="10"/>
       <c r="K36" s="11" t="s">
         <v>1</v>
       </c>
@@ -3011,28 +3029,16 @@
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="2:31">
-      <c r="B37" s="7" t="s">
-        <v>71</v>
-      </c>
+      <c r="B37" s="7"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10">
-        <f t="shared" si="2"/>
-        <v>45143</v>
-      </c>
-      <c r="H37" s="10">
-        <f t="shared" si="3"/>
-        <v>45152</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J37" s="21"/>
-      <c r="K37" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="7"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -3056,25 +3062,19 @@
     </row>
     <row r="38" spans="2:31">
       <c r="B38" s="7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10">
-        <f>DATE(2023,8,13)</f>
-        <v>45151</v>
-      </c>
-      <c r="H38" s="10">
-        <f t="shared" si="3"/>
-        <v>45152</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="J38" s="21"/>
-      <c r="K38" s="11"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L38" s="7"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3097,24 +3097,26 @@
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="2:31">
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="7"/>
+      <c r="C39" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10">
-        <f>DATE(2023,8,14)</f>
-        <v>45152</v>
+        <v>45137</v>
       </c>
       <c r="H39" s="10">
-        <f t="shared" si="3"/>
-        <v>45152</v>
-      </c>
-      <c r="I39" s="9"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="11"/>
+        <v>45141</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J39" s="10"/>
+      <c r="K39" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L39" s="7"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3138,15 +3140,25 @@
     </row>
     <row r="40" spans="2:31">
       <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>71</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="11"/>
+      <c r="G40" s="10">
+        <v>45132</v>
+      </c>
+      <c r="H40" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L40" s="7"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3170,15 +3182,25 @@
     </row>
     <row r="41" spans="2:31">
       <c r="B41" s="7"/>
-      <c r="C41" s="8"/>
+      <c r="C41" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="11"/>
+      <c r="G41" s="10">
+        <v>45152</v>
+      </c>
+      <c r="H41" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L41" s="7"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3206,10 +3228,10 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="21"/>
+      <c r="J42" s="10"/>
       <c r="K42" s="11"/>
       <c r="L42" s="7"/>
       <c r="M42" s="8"/>
@@ -3232,17 +3254,21 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="14"/>
     </row>
-    <row r="43" spans="2:31">
-      <c r="B43" s="7"/>
+    <row r="43" spans="2:31" ht="17.100000000000001" customHeight="1">
+      <c r="B43" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
       <c r="I43" s="9"/>
       <c r="J43" s="21"/>
-      <c r="K43" s="11"/>
+      <c r="K43" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L43" s="7"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -3264,17 +3290,27 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="14"/>
     </row>
-    <row r="44" spans="2:31" ht="17.100000000000001" customHeight="1">
+    <row r="44" spans="2:31">
       <c r="B44" s="7"/>
-      <c r="C44" s="8"/>
+      <c r="C44" s="8" t="s">
+        <v>66</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="9"/>
+      <c r="G44" s="10">
+        <v>45154</v>
+      </c>
+      <c r="H44" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J44" s="21"/>
-      <c r="K44" s="11"/>
+      <c r="K44" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L44" s="7"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -3298,15 +3334,25 @@
     </row>
     <row r="45" spans="2:31">
       <c r="B45" s="7"/>
-      <c r="C45" s="8"/>
+      <c r="C45" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="9"/>
+      <c r="G45" s="10">
+        <v>45154</v>
+      </c>
+      <c r="H45" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="J45" s="21"/>
-      <c r="K45" s="11"/>
+      <c r="K45" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -3330,15 +3376,25 @@
     </row>
     <row r="46" spans="2:31">
       <c r="B46" s="7"/>
-      <c r="C46" s="8"/>
+      <c r="C46" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="9"/>
+      <c r="G46" s="10">
+        <v>45154</v>
+      </c>
+      <c r="H46" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J46" s="21"/>
-      <c r="K46" s="11"/>
+      <c r="K46" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L46" s="7"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -3362,15 +3418,25 @@
     </row>
     <row r="47" spans="2:31">
       <c r="B47" s="7"/>
-      <c r="C47" s="8"/>
+      <c r="C47" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="9"/>
+      <c r="G47" s="10">
+        <v>45154</v>
+      </c>
+      <c r="H47" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="J47" s="21"/>
-      <c r="K47" s="11"/>
+      <c r="K47" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L47" s="7"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -3398,11 +3464,19 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="21"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="9"/>
+      <c r="G48" s="10">
+        <v>45154</v>
+      </c>
+      <c r="H48" s="10">
+        <v>45154</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="J48" s="21"/>
-      <c r="K48" s="11"/>
+      <c r="K48" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L48" s="7"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -3488,37 +3562,261 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="14"/>
     </row>
-    <row r="51" spans="2:31" ht="15" thickBot="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="25"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="27"/>
+    <row r="51" spans="2:31" ht="17.100000000000001" customHeight="1">
+      <c r="B51" s="7"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="14"/>
+    </row>
+    <row r="52" spans="2:31">
+      <c r="B52" s="7"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="14"/>
+    </row>
+    <row r="53" spans="2:31">
+      <c r="B53" s="7"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="14"/>
+    </row>
+    <row r="54" spans="2:31">
+      <c r="B54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="14"/>
+    </row>
+    <row r="55" spans="2:31">
+      <c r="B55" s="7"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="14"/>
+    </row>
+    <row r="56" spans="2:31">
+      <c r="B56" s="7"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="14"/>
+    </row>
+    <row r="57" spans="2:31">
+      <c r="B57" s="7"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="14"/>
+    </row>
+    <row r="58" spans="2:31" ht="15" thickBot="1">
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="23"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="23"/>
+      <c r="T58" s="23"/>
+      <c r="U58" s="23"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
+      <c r="X58" s="23"/>
+      <c r="Y58" s="23"/>
+      <c r="Z58" s="23"/>
+      <c r="AA58" s="23"/>
+      <c r="AB58" s="23"/>
+      <c r="AC58" s="23"/>
+      <c r="AD58" s="23"/>
+      <c r="AE58" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3535,7 +3833,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K58" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>

--- a/AI Project Work Breakdown Structure (WBS).xlsx
+++ b/AI Project Work Breakdown Structure (WBS).xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mesha\سطح المكتب\SIC AI\SIC-AI-KSA-2023-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\almuhyaru\Desktop\SIC-AI-KSA-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83202FED-ACA3-4DB7-9E9E-509E9003D220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="819" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="819" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="6" r:id="rId1"/>
     <sheet name="WBS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,12 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="74">
   <si>
     <t>Task</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +198,18 @@
     <t>1. Brainstorming ideas</t>
   </si>
   <si>
+    <t>1.1. Research</t>
+  </si>
+  <si>
+    <t>1.1.1. Evaluation</t>
+  </si>
+  <si>
+    <t>1.1.1.1. Planing</t>
+  </si>
+  <si>
+    <t>1.1.1.1.1. Final decision</t>
+  </si>
+  <si>
     <t>Responsibility</t>
   </si>
   <si>
@@ -214,12 +219,18 @@
     <t>Deliverable</t>
   </si>
   <si>
+    <t>Ruba, Sara, Ghassan, Meshal, Martada, Abdullah</t>
+  </si>
+  <si>
     <t>Martada , Meshal</t>
   </si>
   <si>
     <t>2. Editing</t>
   </si>
   <si>
+    <t>2.1.1  Edit action plan file</t>
+  </si>
+  <si>
     <t>Capstone Project Work Breakdown Structure (WBS)</t>
   </si>
   <si>
@@ -235,12 +246,24 @@
     <t>3.1 Data collection</t>
   </si>
   <si>
+    <t>3.1.1 Data analysis</t>
+  </si>
+  <si>
     <t>4.Model</t>
   </si>
   <si>
     <t>4.1  Model design</t>
   </si>
   <si>
+    <t>4.1.1 Model implementation</t>
+  </si>
+  <si>
+    <t>4.1.1.1 Model evaluation</t>
+  </si>
+  <si>
+    <t>1.2 github processing</t>
+  </si>
+  <si>
     <t xml:space="preserve">5. Deploy </t>
   </si>
   <si>
@@ -250,82 +273,22 @@
     <t>Ruba, Martada, Meshal</t>
   </si>
   <si>
+    <t xml:space="preserve">8.speaker </t>
+  </si>
+  <si>
+    <t>6.  action plan</t>
+  </si>
+  <si>
+    <t>7.powerpoint presentation</t>
+  </si>
+  <si>
     <t>Meshal, Martada</t>
-  </si>
-  <si>
-    <t>Distracted Driver Detection</t>
-  </si>
-  <si>
-    <t>InnovateX</t>
-  </si>
-  <si>
-    <t>1.2 Github Processing</t>
-  </si>
-  <si>
-    <t>6. Capstone Project Files</t>
-  </si>
-  <si>
-    <t>7. Project Delivery</t>
-  </si>
-  <si>
-    <t>7.1 Final Action Plan</t>
-  </si>
-  <si>
-    <t>7.2 Final Report</t>
-  </si>
-  <si>
-    <t>7.3 Final Presentation</t>
-  </si>
-  <si>
-    <t>7.4 Final Code File</t>
-  </si>
-  <si>
-    <t>6.1 Action Plan</t>
-  </si>
-  <si>
-    <t>6.2 WBS</t>
-  </si>
-  <si>
-    <t>6.3 Presentation</t>
-  </si>
-  <si>
-    <t>Meshal</t>
-  </si>
-  <si>
-    <t>3.2 Data analysis</t>
-  </si>
-  <si>
-    <t>2.2  Edit action plan file</t>
-  </si>
-  <si>
-    <t>Ruba, Meshal</t>
-  </si>
-  <si>
-    <t>4.2 Model implementation</t>
-  </si>
-  <si>
-    <t>4.2.1 Model Training</t>
-  </si>
-  <si>
-    <t>4.2.2 Model Testing</t>
-  </si>
-  <si>
-    <t>1.1. Planning</t>
-  </si>
-  <si>
-    <t>1.2 Research</t>
-  </si>
-  <si>
-    <t>1.3 Evaluation</t>
-  </si>
-  <si>
-    <t>1.4 Final Decision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -778,19 +741,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -799,7 +762,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -820,25 +783,25 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -865,16 +828,19 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -892,10 +858,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1393,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1474,8 +1437,8 @@
     </row>
     <row r="9" spans="2:15" ht="15">
       <c r="B9" s="3"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="3"/>
@@ -1492,8 +1455,8 @@
     </row>
     <row r="10" spans="2:15" ht="44.4">
       <c r="B10" s="3"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="42" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="3"/>
@@ -1510,8 +1473,8 @@
     </row>
     <row r="11" spans="2:15" ht="44.4">
       <c r="B11" s="3"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="3"/>
@@ -1544,8 +1507,8 @@
     </row>
     <row r="13" spans="2:15" ht="15">
       <c r="B13" s="3"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
         <v>38</v>
       </c>
       <c r="E13" s="3"/>
@@ -1658,8 +1621,8 @@
     </row>
     <row r="20" spans="2:15" ht="9.9" customHeight="1">
       <c r="B20" s="3"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43" t="s">
         <v>43</v>
       </c>
       <c r="E20" s="3"/>
@@ -1676,8 +1639,8 @@
     </row>
     <row r="21" spans="2:15" ht="9.9" customHeight="1">
       <c r="B21" s="3"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="44"/>
+      <c r="D21" s="44" t="s">
         <v>39</v>
       </c>
       <c r="E21" s="3"/>
@@ -1694,8 +1657,8 @@
     </row>
     <row r="22" spans="2:15" ht="9.9" customHeight="1">
       <c r="B22" s="3"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="44"/>
+      <c r="D22" s="44" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="3"/>
@@ -1712,8 +1675,8 @@
     </row>
     <row r="23" spans="2:15" ht="9.9" customHeight="1">
       <c r="B23" s="3"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43" t="s">
+      <c r="C23" s="44"/>
+      <c r="D23" s="44" t="s">
         <v>41</v>
       </c>
       <c r="E23" s="3"/>
@@ -1746,8 +1709,8 @@
     </row>
     <row r="25" spans="2:15" ht="15">
       <c r="B25" s="3"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44" t="s">
+      <c r="C25" s="45"/>
+      <c r="D25" s="45" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="3"/>
@@ -1765,7 +1728,7 @@
     <row r="26" spans="2:15" ht="15">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="44"/>
+      <c r="D26" s="45"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1802,26 +1765,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AE58"/>
+  <dimension ref="B1:AE51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="11" ySplit="13" topLeftCell="L31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="13" topLeftCell="L14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
-      <selection pane="bottomRight" activeCell="M36" sqref="M36"/>
+      <selection pane="bottomRight" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.88671875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="6.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="57.33203125" style="1" customWidth="1"/>
     <col min="7" max="8" width="12.109375" style="34" customWidth="1" outlineLevel="1"/>
     <col min="9" max="9" width="26.109375" style="1" customWidth="1" outlineLevel="1"/>
@@ -1834,7 +1794,7 @@
     <row r="1" spans="2:31" ht="15" thickBot="1"/>
     <row r="2" spans="2:31" ht="18" thickBot="1">
       <c r="B2" s="28" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1881,9 +1841,9 @@
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="32"/>
-      <c r="F7" s="46">
+      <c r="F7" s="39">
         <f ca="1">TODAY()</f>
-        <v>45154</v>
+        <v>45153</v>
       </c>
     </row>
     <row r="8" spans="2:31" ht="15" thickBot="1">
@@ -1893,8 +1853,8 @@
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
       <c r="E8" s="32"/>
-      <c r="F8" s="39" t="s">
-        <v>62</v>
+      <c r="F8" s="40" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="15" thickBot="1">
@@ -1904,9 +1864,7 @@
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
       <c r="E9" s="32"/>
-      <c r="F9" s="39" t="s">
-        <v>61</v>
-      </c>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="2:31" ht="15" thickBot="1"/>
     <row r="11" spans="2:31">
@@ -1924,10 +1882,10 @@
         <v>7</v>
       </c>
       <c r="I11" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J11" s="48" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K11" s="54" t="s">
         <v>5</v>
@@ -2122,7 +2080,7 @@
         <v>45132</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J14" s="10"/>
       <c r="K14" s="11" t="s">
@@ -2152,7 +2110,7 @@
     <row r="15" spans="2:31">
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -2166,7 +2124,7 @@
         <v>45136</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J15" s="10"/>
       <c r="K15" s="11" t="s">
@@ -2195,10 +2153,10 @@
     </row>
     <row r="16" spans="2:31">
       <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E16" s="9"/>
       <c r="F16" s="3"/>
       <c r="G16" s="10">
@@ -2210,7 +2168,7 @@
         <v>45137</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="11" t="s">
@@ -2239,11 +2197,11 @@
     </row>
     <row r="17" spans="2:31">
       <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
-        <v>82</v>
-      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="F17" s="9"/>
       <c r="G17" s="10">
         <f>DATE(2023,7,30)</f>
@@ -2254,7 +2212,7 @@
         <v>45137</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="11" t="s">
@@ -2283,12 +2241,12 @@
     </row>
     <row r="18" spans="2:31">
       <c r="B18" s="7"/>
-      <c r="C18" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="46" t="s">
+        <v>48</v>
+      </c>
       <c r="G18" s="10">
         <f>DATE(2023,7,30)</f>
         <v>45137</v>
@@ -2298,7 +2256,7 @@
         <v>45137</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J18" s="10"/>
       <c r="K18" s="11" t="s">
@@ -2330,7 +2288,7 @@
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="9"/>
@@ -2359,12 +2317,12 @@
     </row>
     <row r="20" spans="2:31">
       <c r="B20" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="10">
         <f>DATE(2023,7,29)</f>
         <v>45136</v>
@@ -2374,7 +2332,7 @@
         <v>45136</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J20" s="10"/>
       <c r="K20" s="11" t="s">
@@ -2406,7 +2364,7 @@
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
       <c r="I21" s="9"/>
@@ -2435,7 +2393,7 @@
     </row>
     <row r="22" spans="2:31">
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -2472,7 +2430,7 @@
     <row r="23" spans="2:31">
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -2481,11 +2439,9 @@
         <f>DATE(2023,7,20)</f>
         <v>45127</v>
       </c>
-      <c r="H23" s="10">
-        <v>45154</v>
-      </c>
+      <c r="H23" s="10"/>
       <c r="I23" s="9" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="J23" s="10"/>
       <c r="K23" s="11" t="s">
@@ -2514,10 +2470,10 @@
     </row>
     <row r="24" spans="2:31">
       <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10">
@@ -2529,7 +2485,7 @@
         <v>45137</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="11" t="s">
@@ -2590,7 +2546,7 @@
     </row>
     <row r="26" spans="2:31">
       <c r="B26" s="7" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -2627,7 +2583,7 @@
     <row r="27" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
       <c r="C27" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2641,7 +2597,7 @@
         <v>45141</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J27" s="10"/>
       <c r="K27" s="11" t="s">
@@ -2670,10 +2626,10 @@
     </row>
     <row r="28" spans="2:31">
       <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="3"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10">
@@ -2685,7 +2641,7 @@
         <v>45144</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="11" t="s">
@@ -2718,11 +2674,21 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="9"/>
+      <c r="G29" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="H29" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>69</v>
+      </c>
       <c r="J29" s="10"/>
-      <c r="K29" s="11"/>
+      <c r="K29" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L29" s="7"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
@@ -2746,15 +2712,23 @@
     </row>
     <row r="30" spans="2:31">
       <c r="B30" s="7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="9"/>
+      <c r="G30" s="10">
+        <f>DATE(2023,8,8)</f>
+        <v>45146</v>
+      </c>
+      <c r="H30" s="10">
+        <f>DATE(2023,8,9)</f>
+        <v>45147</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="J30" s="10"/>
       <c r="K30" s="11" t="s">
         <v>1</v>
@@ -2783,7 +2757,7 @@
     <row r="31" spans="2:31">
       <c r="B31" s="7"/>
       <c r="C31" s="8" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2797,7 +2771,7 @@
         <v>45151</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J31" s="10"/>
       <c r="K31" s="11" t="s">
@@ -2828,7 +2802,7 @@
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="8" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="9"/>
@@ -2837,11 +2811,11 @@
         <v>45150</v>
       </c>
       <c r="H32" s="10">
-        <f t="shared" ref="H32:H33" si="1">DATE(2023,8,13)</f>
+        <f t="shared" ref="H32:H34" si="1">DATE(2023,8,13)</f>
         <v>45151</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="J32" s="10"/>
       <c r="K32" s="11" t="s">
@@ -2873,7 +2847,7 @@
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
       <c r="E33" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="10">
@@ -2885,7 +2859,7 @@
         <v>45151</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="J33" s="10"/>
       <c r="K33" s="11" t="s">
@@ -2916,19 +2890,17 @@
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
-        <v>79</v>
-      </c>
+      <c r="E34" s="8"/>
       <c r="F34" s="9"/>
       <c r="G34" s="10">
+        <f>DATE(2023,8,12)</f>
+        <v>45150</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="1"/>
         <v>45151</v>
       </c>
-      <c r="H34" s="10">
-        <v>45152</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="I34" s="9"/>
       <c r="J34" s="10"/>
       <c r="K34" s="11" t="s">
         <v>1</v>
@@ -2955,16 +2927,28 @@
       <c r="AE34" s="14"/>
     </row>
     <row r="35" spans="2:31">
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="9"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="10">
+        <f>DATE(2023,8,9)</f>
+        <v>45147</v>
+      </c>
+      <c r="H35" s="10">
+        <f>DATE(2023,8,14)</f>
+        <v>45152</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>68</v>
+      </c>
       <c r="J35" s="10"/>
-      <c r="K35" s="11"/>
+      <c r="K35" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L35" s="7"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
@@ -2986,24 +2970,22 @@
       <c r="AD35" s="8"/>
       <c r="AE35" s="14"/>
     </row>
-    <row r="36" spans="2:31">
-      <c r="B36" s="7" t="s">
-        <v>57</v>
-      </c>
+    <row r="36" spans="2:31" ht="17.100000000000001" customHeight="1">
+      <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
       <c r="G36" s="10">
-        <v>45153</v>
+        <f t="shared" ref="G29:G39" si="2">DATE(2023,8,5)</f>
+        <v>45143</v>
       </c>
       <c r="H36" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J36" s="10"/>
+        <f t="shared" ref="H36:H39" si="3">DATE(2023,8,14)</f>
+        <v>45152</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="11" t="s">
         <v>1</v>
       </c>
@@ -3029,16 +3011,28 @@
       <c r="AE36" s="14"/>
     </row>
     <row r="37" spans="2:31">
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>71</v>
+      </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="9"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="11"/>
+      <c r="G37" s="10">
+        <f t="shared" si="2"/>
+        <v>45143</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" s="21"/>
+      <c r="K37" s="11" t="s">
+        <v>1</v>
+      </c>
       <c r="L37" s="7"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
@@ -3062,19 +3056,25 @@
     </row>
     <row r="38" spans="2:31">
       <c r="B38" s="7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="G38" s="10">
+        <f>DATE(2023,8,13)</f>
+        <v>45151</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J38" s="21"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="7"/>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
@@ -3097,26 +3097,24 @@
       <c r="AE38" s="14"/>
     </row>
     <row r="39" spans="2:31">
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>70</v>
       </c>
+      <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="9"/>
       <c r="G39" s="10">
-        <v>45137</v>
+        <f>DATE(2023,8,14)</f>
+        <v>45152</v>
       </c>
       <c r="H39" s="10">
-        <v>45141</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J39" s="10"/>
-      <c r="K39" s="11" t="s">
-        <v>1</v>
-      </c>
+        <f t="shared" si="3"/>
+        <v>45152</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="7"/>
       <c r="M39" s="8"/>
       <c r="N39" s="8"/>
@@ -3140,25 +3138,15 @@
     </row>
     <row r="40" spans="2:31">
       <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="9"/>
-      <c r="G40" s="10">
-        <v>45132</v>
-      </c>
-      <c r="H40" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="J40" s="10"/>
-      <c r="K40" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="7"/>
       <c r="M40" s="8"/>
       <c r="N40" s="8"/>
@@ -3182,25 +3170,15 @@
     </row>
     <row r="41" spans="2:31">
       <c r="B41" s="7"/>
-      <c r="C41" s="8" t="s">
-        <v>72</v>
-      </c>
+      <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="9"/>
-      <c r="G41" s="10">
-        <v>45152</v>
-      </c>
-      <c r="H41" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="7"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
@@ -3228,10 +3206,10 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="10"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="11"/>
       <c r="L42" s="7"/>
       <c r="M42" s="8"/>
@@ -3254,21 +3232,17 @@
       <c r="AD42" s="8"/>
       <c r="AE42" s="14"/>
     </row>
-    <row r="43" spans="2:31" ht="17.100000000000001" customHeight="1">
-      <c r="B43" s="7" t="s">
-        <v>65</v>
-      </c>
+    <row r="43" spans="2:31">
+      <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
       <c r="I43" s="9"/>
       <c r="J43" s="21"/>
-      <c r="K43" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="7"/>
       <c r="M43" s="8"/>
       <c r="N43" s="8"/>
@@ -3290,27 +3264,17 @@
       <c r="AD43" s="8"/>
       <c r="AE43" s="14"/>
     </row>
-    <row r="44" spans="2:31">
+    <row r="44" spans="2:31" ht="17.100000000000001" customHeight="1">
       <c r="B44" s="7"/>
-      <c r="C44" s="8" t="s">
-        <v>66</v>
-      </c>
+      <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="10">
-        <v>45154</v>
-      </c>
-      <c r="H44" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="9"/>
       <c r="J44" s="21"/>
-      <c r="K44" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K44" s="11"/>
       <c r="L44" s="7"/>
       <c r="M44" s="8"/>
       <c r="N44" s="8"/>
@@ -3334,25 +3298,15 @@
     </row>
     <row r="45" spans="2:31">
       <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
-        <v>67</v>
-      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="10">
-        <v>45154</v>
-      </c>
-      <c r="H45" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="9"/>
       <c r="J45" s="21"/>
-      <c r="K45" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K45" s="11"/>
       <c r="L45" s="7"/>
       <c r="M45" s="8"/>
       <c r="N45" s="8"/>
@@ -3376,25 +3330,15 @@
     </row>
     <row r="46" spans="2:31">
       <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
-        <v>68</v>
-      </c>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <v>45154</v>
-      </c>
-      <c r="H46" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="9"/>
       <c r="J46" s="21"/>
-      <c r="K46" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K46" s="11"/>
       <c r="L46" s="7"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -3418,25 +3362,15 @@
     </row>
     <row r="47" spans="2:31">
       <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
-        <v>69</v>
-      </c>
+      <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="9"/>
-      <c r="G47" s="10">
-        <v>45154</v>
-      </c>
-      <c r="H47" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="9"/>
       <c r="J47" s="21"/>
-      <c r="K47" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K47" s="11"/>
       <c r="L47" s="7"/>
       <c r="M47" s="8"/>
       <c r="N47" s="8"/>
@@ -3464,19 +3398,11 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="9"/>
-      <c r="G48" s="10">
-        <v>45154</v>
-      </c>
-      <c r="H48" s="10">
-        <v>45154</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>52</v>
-      </c>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="9"/>
       <c r="J48" s="21"/>
-      <c r="K48" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="K48" s="11"/>
       <c r="L48" s="7"/>
       <c r="M48" s="8"/>
       <c r="N48" s="8"/>
@@ -3562,261 +3488,37 @@
       <c r="AD50" s="8"/>
       <c r="AE50" s="14"/>
     </row>
-    <row r="51" spans="2:31" ht="17.100000000000001" customHeight="1">
-      <c r="B51" s="7"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="8"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="8"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
-      <c r="S51" s="8"/>
-      <c r="T51" s="8"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="8"/>
-      <c r="X51" s="8"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
-      <c r="AA51" s="8"/>
-      <c r="AB51" s="8"/>
-      <c r="AC51" s="8"/>
-      <c r="AD51" s="8"/>
-      <c r="AE51" s="14"/>
-    </row>
-    <row r="52" spans="2:31">
-      <c r="B52" s="7"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="21"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="8"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="8"/>
-      <c r="P52" s="8"/>
-      <c r="Q52" s="8"/>
-      <c r="R52" s="8"/>
-      <c r="S52" s="8"/>
-      <c r="T52" s="8"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="8"/>
-      <c r="X52" s="8"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
-      <c r="AA52" s="8"/>
-      <c r="AB52" s="8"/>
-      <c r="AC52" s="8"/>
-      <c r="AD52" s="8"/>
-      <c r="AE52" s="14"/>
-    </row>
-    <row r="53" spans="2:31">
-      <c r="B53" s="7"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="21"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="8"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="8"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
-      <c r="S53" s="8"/>
-      <c r="T53" s="8"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="8"/>
-      <c r="X53" s="8"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-      <c r="AD53" s="8"/>
-      <c r="AE53" s="14"/>
-    </row>
-    <row r="54" spans="2:31">
-      <c r="B54" s="7"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="8"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="8"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
-      <c r="S54" s="8"/>
-      <c r="T54" s="8"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="8"/>
-      <c r="X54" s="8"/>
-      <c r="Y54" s="8"/>
-      <c r="Z54" s="8"/>
-      <c r="AA54" s="8"/>
-      <c r="AB54" s="8"/>
-      <c r="AC54" s="8"/>
-      <c r="AD54" s="8"/>
-      <c r="AE54" s="14"/>
-    </row>
-    <row r="55" spans="2:31">
-      <c r="B55" s="7"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="21"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
-      <c r="S55" s="8"/>
-      <c r="T55" s="8"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="8"/>
-      <c r="X55" s="8"/>
-      <c r="Y55" s="8"/>
-      <c r="Z55" s="8"/>
-      <c r="AA55" s="8"/>
-      <c r="AB55" s="8"/>
-      <c r="AC55" s="8"/>
-      <c r="AD55" s="8"/>
-      <c r="AE55" s="14"/>
-    </row>
-    <row r="56" spans="2:31">
-      <c r="B56" s="7"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="8"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="8"/>
-      <c r="P56" s="8"/>
-      <c r="Q56" s="8"/>
-      <c r="R56" s="8"/>
-      <c r="S56" s="8"/>
-      <c r="T56" s="8"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="8"/>
-      <c r="X56" s="8"/>
-      <c r="Y56" s="8"/>
-      <c r="Z56" s="8"/>
-      <c r="AA56" s="8"/>
-      <c r="AB56" s="8"/>
-      <c r="AC56" s="8"/>
-      <c r="AD56" s="8"/>
-      <c r="AE56" s="14"/>
-    </row>
-    <row r="57" spans="2:31">
-      <c r="B57" s="7"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="8"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="8"/>
-      <c r="P57" s="8"/>
-      <c r="Q57" s="8"/>
-      <c r="R57" s="8"/>
-      <c r="S57" s="8"/>
-      <c r="T57" s="8"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="8"/>
-      <c r="X57" s="8"/>
-      <c r="Y57" s="8"/>
-      <c r="Z57" s="8"/>
-      <c r="AA57" s="8"/>
-      <c r="AB57" s="8"/>
-      <c r="AC57" s="8"/>
-      <c r="AD57" s="8"/>
-      <c r="AE57" s="14"/>
-    </row>
-    <row r="58" spans="2:31" ht="15" thickBot="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
-      <c r="H58" s="25"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="25"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="23"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="27"/>
+    <row r="51" spans="2:31" ht="15" thickBot="1">
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3833,7 +3535,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K58" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K14:K51">
       <formula1>$K$3:$K$5</formula1>
     </dataValidation>
   </dataValidations>
